--- a/Documentación/entregables.xlsx
+++ b/Documentación/entregables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan_\OneDrive\Escritorio\SAAFv2\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA3C0D2-B1B0-4B20-962F-50186FE0E3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCAB1CC-EBE3-46B3-B921-D454F79559DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{29F2B5EB-55EB-4EC8-86FB-591280C81F22}"/>
   </bookViews>
@@ -532,11 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD45C05-9667-4D45-8BCD-BF456B8A0E3F}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +559,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -584,7 +583,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -596,7 +595,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -608,7 +607,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -620,7 +619,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -632,7 +631,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -644,7 +643,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -656,7 +655,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -668,7 +667,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -704,7 +703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -728,7 +727,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -740,7 +739,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -752,7 +751,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -764,7 +763,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -776,7 +775,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -812,7 +811,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -831,10 +830,10 @@
       <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -848,7 +847,7 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -867,12 +866,12 @@
       <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -885,13 +884,7 @@
       <c r="D28" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D28" xr:uid="{ABD45C05-9667-4D45-8BCD-BF456B8A0E3F}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D28" xr:uid="{ABD45C05-9667-4D45-8BCD-BF456B8A0E3F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
